--- a/biology/Botanique/Apoikiaceae/Apoikiaceae.xlsx
+++ b/biology/Botanique/Apoikiaceae/Apoikiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Apoikiaceae  sont une famille de Chrysophyceae dans l'embranchement des Ochrophyta, seule de la famille de l'ordre des Apoikiales dont l'espèce type est Apoikia lindahlii Skuja.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Apoikia, dérivé du grec ancien ἀποικία / apoikia, « colonisation, colonie »[2], en référence à l'habitus colonial de ces organismes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Apoikia, dérivé du grec ancien ἀποικία / apoikia, « colonisation, colonie », en référence à l'habitus colonial de ces organismes.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des algues Chrysophyceae non photosynthétiques, poussant en colonies, composées de cellules incolores noyées dans un mucilage incolore. Les cellules sont sphériques ou ellipsoïdales,
-pourvu de deux flagelles de longueurs inégales. Il n'y a aucune connexion entre chaque cellule[2].
+pourvu de deux flagelles de longueurs inégales. Il n'y a aucune connexion entre chaque cellule.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (18 jan. 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (18 jan. 2022) :
 Apoikia E.Kim, N.Yubuki, B.S.Leander &amp; L.E.Graham, 2010
 Apoikiospumella Boenigk &amp; Grossmann, 2016</t>
         </is>
